--- a/需求文档/计费规则V0.2.xlsx
+++ b/需求文档/计费规则V0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="26663" windowHeight="15275" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="计费规则-收入" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2323,6 +2323,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>去程重量</t>
     </r>
     <r>
@@ -2371,6 +2376,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>(</t>
     </r>
     <r>
@@ -2485,6 +2495,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>(</t>
     </r>
     <r>
@@ -2539,6 +2554,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Math.max(</t>
     </r>
     <r>
@@ -2612,6 +2632,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>按重计费的重量</t>
     </r>
     <r>
@@ -4539,6 +4564,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F2D3D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>实际出勤天数</t>
     </r>
     <r>
@@ -4565,6 +4596,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F2D3D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>去程重量</t>
     </r>
     <r>
@@ -4841,6 +4878,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F2D3D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>出库订单行数</t>
     </r>
     <r>
@@ -5792,23 +5835,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="9"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
@@ -7477,8 +7520,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView zoomScale="104" zoomScaleNormal="104" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -8659,8 +8702,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -9845,7 +9888,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>

--- a/需求文档/计费规则V0.2.xlsx
+++ b/需求文档/计费规则V0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26663" windowHeight="15275" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="27563" windowHeight="15395" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="计费规则-收入" sheetId="1" state="hidden" r:id="rId1"/>
@@ -4878,12 +4878,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F2D3D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>出库订单行数</t>
     </r>
     <r>
@@ -5835,12 +5829,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7520,8 +7514,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="104" zoomScaleNormal="104" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -8702,8 +8696,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>

--- a/需求文档/计费规则V0.2.xlsx
+++ b/需求文档/计费规则V0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27563" windowHeight="15395" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="15360" windowHeight="15395" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="计费规则-收入" sheetId="1" state="hidden" r:id="rId1"/>
@@ -4878,6 +4878,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F2D3D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>出库订单行数</t>
     </r>
     <r>
@@ -5829,12 +5835,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7514,8 +7520,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -7537,7 +7543,7 @@
       <c r="E1" s="61"/>
       <c r="F1" s="61"/>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:7">
+    <row r="2" ht="30" hidden="1" customHeight="1" spans="1:7">
       <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
@@ -7583,7 +7589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="4" ht="30" customHeight="1" spans="1:7">
       <c r="A4" s="64">
         <v>2</v>
       </c>
@@ -7621,7 +7627,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="6" ht="30" customHeight="1" spans="1:7">
       <c r="A6" s="64">
         <v>4</v>
       </c>
@@ -7686,7 +7692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="96" customHeight="1" spans="1:7">
+    <row r="9" ht="96" hidden="1" customHeight="1" spans="1:7">
       <c r="A9" s="64">
         <v>8</v>
       </c>
@@ -7707,7 +7713,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" ht="30" customHeight="1" spans="1:7">
+    <row r="10" ht="30" hidden="1" customHeight="1" spans="1:7">
       <c r="A10" s="64">
         <v>9</v>
       </c>
@@ -7749,7 +7755,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" ht="30" customHeight="1" spans="1:7">
+    <row r="12" ht="30" hidden="1" customHeight="1" spans="1:7">
       <c r="A12" s="64">
         <v>11</v>
       </c>
@@ -7770,7 +7776,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" ht="30" customHeight="1" spans="1:7">
+    <row r="13" ht="30" hidden="1" customHeight="1" spans="1:7">
       <c r="A13" s="64">
         <v>12</v>
       </c>
@@ -7793,7 +7799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="1:7">
+    <row r="14" ht="30" hidden="1" customHeight="1" spans="1:7">
       <c r="A14" s="64">
         <v>13</v>
       </c>
@@ -7839,7 +7845,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" ht="48" customHeight="1" spans="1:7">
+    <row r="16" ht="48" hidden="1" customHeight="1" spans="1:7">
       <c r="A16" s="64">
         <v>15</v>
       </c>
@@ -7856,7 +7862,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1" spans="1:7">
+    <row r="17" ht="30" hidden="1" customHeight="1" spans="1:7">
       <c r="A17" s="64">
         <v>16</v>
       </c>
@@ -7879,7 +7885,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" ht="30" customHeight="1" spans="1:7">
+    <row r="18" ht="30" hidden="1" customHeight="1" spans="1:7">
       <c r="A18" s="64">
         <v>17</v>
       </c>
@@ -7902,7 +7908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="19" ht="30" customHeight="1" spans="1:7">
       <c r="A19" s="64">
         <v>18</v>
       </c>
@@ -7925,7 +7931,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="20" ht="30" customHeight="1" spans="1:7">
       <c r="A20" s="64">
         <v>19</v>
       </c>
@@ -7971,7 +7977,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" ht="30" customHeight="1" spans="1:7">
+    <row r="22" ht="30" hidden="1" customHeight="1" spans="1:7">
       <c r="A22" s="64">
         <v>21</v>
       </c>
@@ -7992,7 +7998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="1:6">
+    <row r="23" ht="15.6" hidden="1" spans="1:6">
       <c r="A23" s="64">
         <v>22</v>
       </c>
@@ -8039,13 +8045,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:2">
+    <row r="26" ht="15.6" hidden="1" spans="1:2">
       <c r="A26" s="64">
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" ht="15.6" spans="1:2">
+    <row r="27" ht="15.6" hidden="1" spans="1:2">
       <c r="A27" s="64">
         <v>26</v>
       </c>
@@ -8074,7 +8080,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:7">
+    <row r="29" ht="15.6" hidden="1" spans="1:7">
       <c r="A29" s="64">
         <v>28</v>
       </c>
@@ -8095,7 +8101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
+    <row r="30" ht="15.6" hidden="1" spans="1:7">
       <c r="A30" s="64">
         <v>29</v>
       </c>
@@ -8110,7 +8116,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" ht="28.8" spans="1:7">
+    <row r="31" ht="28.8" hidden="1" spans="1:7">
       <c r="A31" s="64">
         <v>30</v>
       </c>
@@ -8154,7 +8160,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="1:7">
+    <row r="33" ht="15.6" hidden="1" spans="1:7">
       <c r="A33" s="64">
         <v>32</v>
       </c>
@@ -8175,7 +8181,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="1:2">
+    <row r="34" ht="15.6" hidden="1" spans="1:2">
       <c r="A34" s="64">
         <v>33</v>
       </c>
@@ -8183,19 +8189,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F34">
-    <filterColumn colId="2">
-      <filters blank="1">
-        <filter val="备件物流-社会业务"/>
-        <filter val="备件物流-英菲精品"/>
-        <filter val="备件物流-广宣品"/>
-        <filter val="备件物流-DFL-日产反向"/>
-        <filter val="备件物流-乘用车"/>
-        <filter val="备件物流-社会物流-广州三井项目（提货费）"/>
-        <filter val="备件物流-NCIC（非油品按方，油品按重）"/>
-        <filter val="备件物流-神龙"/>
-        <filter val="备件物流-DFL"/>
-        <filter val="备件物流-社会业务-雷诺返件项目"/>
-        <filter val="业务场景"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="按方"/>
       </filters>
     </filterColumn>
     <extLst/>
@@ -8218,6 +8214,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -8693,10 +8690,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -8744,7 +8741,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" ht="33.25" hidden="1" customHeight="1" spans="1:7">
+    <row r="3" ht="33.25" customHeight="1" spans="1:7">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -8767,7 +8764,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" ht="33.25" hidden="1" customHeight="1" spans="1:7">
+    <row r="4" ht="33.25" customHeight="1" spans="1:7">
       <c r="A4" s="31">
         <v>2</v>
       </c>
@@ -8784,7 +8781,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" ht="50" hidden="1" customHeight="1" spans="1:7">
+    <row r="5" ht="50" customHeight="1" spans="1:7">
       <c r="A5" s="31">
         <v>3</v>
       </c>
@@ -8807,7 +8804,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" ht="43" hidden="1" customHeight="1" spans="1:7">
+    <row r="6" ht="43" customHeight="1" spans="1:7">
       <c r="A6" s="31">
         <v>4</v>
       </c>
@@ -8822,7 +8819,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" ht="33.25" hidden="1" customHeight="1" spans="1:7">
+    <row r="7" ht="33.25" customHeight="1" spans="1:7">
       <c r="A7" s="31">
         <v>5</v>
       </c>
@@ -8841,7 +8838,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" ht="33.25" hidden="1" customHeight="1" spans="1:7">
+    <row r="8" ht="33.25" customHeight="1" spans="1:7">
       <c r="A8" s="31">
         <v>6</v>
       </c>
@@ -8862,7 +8859,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" ht="33.25" hidden="1" customHeight="1" spans="1:7">
+    <row r="9" ht="33.25" customHeight="1" spans="1:7">
       <c r="A9" s="31">
         <v>7</v>
       </c>
@@ -8881,7 +8878,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" ht="33.25" hidden="1" customHeight="1" spans="1:7">
+    <row r="10" ht="33.25" customHeight="1" spans="1:7">
       <c r="A10" s="31">
         <v>8</v>
       </c>
@@ -8900,7 +8897,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" ht="33.25" hidden="1" customHeight="1" spans="1:7">
+    <row r="11" ht="33.25" customHeight="1" spans="1:7">
       <c r="A11" s="31">
         <v>9</v>
       </c>
@@ -8919,7 +8916,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" ht="33.25" hidden="1" customHeight="1" spans="1:7">
+    <row r="12" ht="33.25" customHeight="1" spans="1:7">
       <c r="A12" s="31">
         <v>10</v>
       </c>
@@ -9192,7 +9189,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" ht="33.25" hidden="1" customHeight="1" spans="1:7">
+    <row r="25" ht="33.25" customHeight="1" spans="1:7">
       <c r="A25" s="31">
         <v>23</v>
       </c>
@@ -9213,7 +9210,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:7">
+    <row r="26" spans="1:7">
       <c r="A26" s="31">
         <v>24</v>
       </c>
@@ -9231,7 +9228,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:7">
+    <row r="27" spans="1:7">
       <c r="A27" s="31">
         <v>25</v>
       </c>
@@ -9249,7 +9246,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" ht="29.55" hidden="1" spans="1:7">
+    <row r="28" ht="29.55" spans="1:7">
       <c r="A28" s="31">
         <v>26</v>
       </c>
@@ -9264,7 +9261,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" ht="72" hidden="1" spans="1:7">
+    <row r="29" ht="72" spans="1:7">
       <c r="A29" s="31">
         <v>27</v>
       </c>
@@ -9279,7 +9276,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:7">
+    <row r="30" spans="1:7">
       <c r="A30" s="31">
         <v>28</v>
       </c>
@@ -9302,7 +9299,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:7">
+    <row r="31" spans="1:7">
       <c r="A31" s="31">
         <v>29</v>
       </c>
@@ -9455,7 +9452,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="29" hidden="1" customHeight="1" spans="1:7">
+    <row r="38" customFormat="1" ht="29" customHeight="1" spans="1:7">
       <c r="A38" s="31">
         <v>37</v>
       </c>
@@ -9478,7 +9475,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" ht="29" hidden="1" customHeight="1" spans="1:7">
+    <row r="39" ht="29" customHeight="1" spans="1:7">
       <c r="A39" s="31">
         <v>38</v>
       </c>
@@ -9499,7 +9496,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" ht="26" hidden="1" customHeight="1" spans="1:7">
+    <row r="40" ht="26" customHeight="1" spans="1:7">
       <c r="A40" s="31">
         <v>39</v>
       </c>
@@ -9520,7 +9517,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="41" ht="30" customHeight="1" spans="1:7">
       <c r="A41" s="31">
         <v>40</v>
       </c>
@@ -9541,7 +9538,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" ht="33" hidden="1" customHeight="1" spans="1:7">
+    <row r="42" ht="33" customHeight="1" spans="1:7">
       <c r="A42" s="31">
         <v>41</v>
       </c>
@@ -9562,7 +9559,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" ht="33" hidden="1" customHeight="1" spans="1:7">
+    <row r="43" ht="33" customHeight="1" spans="1:7">
       <c r="A43" s="31">
         <v>42</v>
       </c>
@@ -9583,7 +9580,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="26" hidden="1" customHeight="1" spans="1:7">
+    <row r="44" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A44" s="31">
         <v>43</v>
       </c>
@@ -9604,7 +9601,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="45" ht="28" hidden="1" customHeight="1" spans="1:7">
+    <row r="45" ht="28" customHeight="1" spans="1:7">
       <c r="A45" s="31">
         <v>44</v>
       </c>
@@ -9625,7 +9622,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" ht="28" hidden="1" customHeight="1" spans="1:7">
+    <row r="46" ht="28" customHeight="1" spans="1:7">
       <c r="A46" s="31">
         <v>45</v>
       </c>
@@ -9646,7 +9643,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="47" ht="25" hidden="1" customHeight="1" spans="1:7">
+    <row r="47" ht="25" customHeight="1" spans="1:7">
       <c r="A47" s="31">
         <v>46</v>
       </c>
@@ -9667,7 +9664,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" ht="29" hidden="1" customHeight="1" spans="1:7">
+    <row r="48" ht="29" customHeight="1" spans="1:7">
       <c r="A48" s="31">
         <v>47</v>
       </c>
@@ -9688,7 +9685,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="49" ht="28" hidden="1" customHeight="1" spans="1:7">
+    <row r="49" ht="28" customHeight="1" spans="1:7">
       <c r="A49" s="31">
         <v>48</v>
       </c>
@@ -9709,7 +9706,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="50" ht="19" hidden="1" customHeight="1" spans="1:7">
+    <row r="50" ht="19" customHeight="1" spans="1:7">
       <c r="A50" s="31">
         <v>49</v>
       </c>
@@ -9730,7 +9727,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="51" ht="33" hidden="1" customHeight="1" spans="1:7">
+    <row r="51" ht="33" customHeight="1" spans="1:7">
       <c r="A51" s="31">
         <v>50</v>
       </c>
@@ -9751,7 +9748,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="52" ht="20" hidden="1" customHeight="1" spans="1:7">
+    <row r="52" ht="20" customHeight="1" spans="1:7">
       <c r="A52" s="31">
         <v>51</v>
       </c>
@@ -9772,7 +9769,7 @@
       </c>
       <c r="G52" s="44"/>
     </row>
-    <row r="53" ht="20" hidden="1" customHeight="1" spans="1:7">
+    <row r="53" ht="20" customHeight="1" spans="1:7">
       <c r="A53" s="31">
         <v>52</v>
       </c>
@@ -9793,7 +9790,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="54" ht="23" hidden="1" customHeight="1" spans="1:7">
+    <row r="54" ht="23" customHeight="1" spans="1:7">
       <c r="A54" s="31">
         <v>53</v>
       </c>
@@ -9812,7 +9809,7 @@
       </c>
       <c r="G54" s="44"/>
     </row>
-    <row r="55" ht="24" hidden="1" customHeight="1" spans="1:7">
+    <row r="55" ht="24" customHeight="1" spans="1:7">
       <c r="A55" s="31">
         <v>54</v>
       </c>
@@ -9843,14 +9840,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:G55">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="备件物流-备件包装-NCIC"/>
-        <filter val="备件物流-DEFAULT"/>
-        <filter val="备件物流-乘用车"/>
-        <filter val="备件物流-神龙"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="15">

--- a/需求文档/计费规则V0.2.xlsx
+++ b/需求文档/计费规则V0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="15395" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20471" windowHeight="9852" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="计费规则-收入" sheetId="1" state="hidden" r:id="rId1"/>
@@ -5835,11 +5835,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -5849,6 +5844,11 @@
       <b/>
       <sz val="9"/>
       <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7517,10 +7517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" topLeftCell="C6" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -7543,7 +7543,7 @@
       <c r="E1" s="61"/>
       <c r="F1" s="61"/>
     </row>
-    <row r="2" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="2" ht="30" customHeight="1" spans="1:7">
       <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="3" ht="30" customHeight="1" spans="1:7">
       <c r="A3" s="64">
         <v>1</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="5" ht="30" customHeight="1" spans="1:7">
       <c r="A5" s="64">
         <v>3</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="7" ht="30" customHeight="1" spans="1:7">
       <c r="A7" s="64">
         <v>6</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="8" ht="30" customHeight="1" spans="1:7">
       <c r="A8" s="64">
         <v>7</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="96" hidden="1" customHeight="1" spans="1:7">
+    <row r="9" ht="96" customHeight="1" spans="1:7">
       <c r="A9" s="64">
         <v>8</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="10" ht="30" customHeight="1" spans="1:7">
       <c r="A10" s="64">
         <v>9</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="12" ht="30" customHeight="1" spans="1:7">
       <c r="A12" s="64">
         <v>11</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="13" ht="30" customHeight="1" spans="1:7">
       <c r="A13" s="64">
         <v>12</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="14" ht="30" customHeight="1" spans="1:7">
       <c r="A14" s="64">
         <v>13</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" ht="48" hidden="1" customHeight="1" spans="1:7">
+    <row r="16" ht="48" customHeight="1" spans="1:7">
       <c r="A16" s="64">
         <v>15</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="17" ht="30" customHeight="1" spans="1:7">
       <c r="A17" s="64">
         <v>16</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="18" ht="30" customHeight="1" spans="1:7">
       <c r="A18" s="64">
         <v>17</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="21" ht="30" customHeight="1" spans="1:7">
       <c r="A21" s="64">
         <v>20</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" ht="30" hidden="1" customHeight="1" spans="1:7">
+    <row r="22" ht="30" customHeight="1" spans="1:7">
       <c r="A22" s="64">
         <v>21</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" ht="15.6" hidden="1" spans="1:6">
+    <row r="23" ht="15.6" spans="1:6">
       <c r="A23" s="64">
         <v>22</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" ht="15.6" hidden="1" spans="1:6">
+    <row r="24" ht="15.6" spans="1:6">
       <c r="A24" s="64">
         <v>23</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" ht="15.6" hidden="1" spans="1:6">
+    <row r="25" ht="15.6" spans="1:6">
       <c r="A25" s="64">
         <v>24</v>
       </c>
@@ -8045,13 +8045,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" ht="15.6" hidden="1" spans="1:2">
+    <row r="26" ht="15.6" spans="1:2">
       <c r="A26" s="64">
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" ht="15.6" hidden="1" spans="1:2">
+    <row r="27" ht="15.6" spans="1:2">
       <c r="A27" s="64">
         <v>26</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" ht="15.6" hidden="1" spans="1:7">
+    <row r="29" ht="15.6" spans="1:7">
       <c r="A29" s="64">
         <v>28</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" ht="15.6" hidden="1" spans="1:7">
+    <row r="30" ht="15.6" spans="1:7">
       <c r="A30" s="64">
         <v>29</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" ht="28.8" hidden="1" spans="1:7">
+    <row r="31" ht="28.8" spans="1:7">
       <c r="A31" s="64">
         <v>30</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" ht="15.6" hidden="1" spans="1:7">
+    <row r="33" ht="15.6" spans="1:7">
       <c r="A33" s="64">
         <v>32</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" ht="15.6" hidden="1" spans="1:2">
+    <row r="34" ht="15.6" spans="1:2">
       <c r="A34" s="64">
         <v>33</v>
       </c>
@@ -8189,11 +8189,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F34">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="按方"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="10">
